--- a/sputnik/personal/ee/30ee.xlsx
+++ b/sputnik/personal/ee/30ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -457,10 +457,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -688,32 +688,83 @@
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="5" t="s">
-        <v>10</v>
+      <c r="A10" s="8">
+        <v>43958</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>49409</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" ref="D10:D11" si="3">C10-C8</f>
+        <v>1900</v>
+      </c>
+      <c r="E10" s="7">
+        <v>4.49</v>
+      </c>
+      <c r="F10" s="5">
+        <f>D10*E10</f>
+        <v>8531</v>
       </c>
       <c r="G10" s="5">
-        <f>SUM(G4:G9)</f>
-        <v>36792</v>
+        <f>SUM(F10,F11)</f>
+        <v>11447</v>
       </c>
       <c r="H10" s="5">
-        <f>SUM(H4:H9)</f>
-        <v>36792</v>
+        <v>11447</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="5"/>
+      <c r="B11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2">
+        <v>27604</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="3"/>
+        <v>1200</v>
+      </c>
+      <c r="E11" s="2">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F11" s="5">
+        <f>D11*E11</f>
+        <v>2916</v>
+      </c>
       <c r="G11" s="2"/>
       <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="5">
+        <f>SUM(G4:G11)</f>
+        <v>48239</v>
+      </c>
+      <c r="H12" s="5">
+        <f>SUM(H4:H11)</f>
+        <v>48239</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/30ee.xlsx
+++ b/sputnik/personal/ee/30ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -457,10 +457,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -603,7 +603,7 @@
         <v>4.49</v>
       </c>
       <c r="F6" s="5">
-        <f>D6*E6</f>
+        <f t="shared" ref="F6:F11" si="2">D6*E6</f>
         <v>11225</v>
       </c>
       <c r="G6" s="5">
@@ -630,7 +630,7 @@
         <v>2.4300000000000002</v>
       </c>
       <c r="F7" s="5">
-        <f>D7*E7</f>
+        <f t="shared" si="2"/>
         <v>3159</v>
       </c>
       <c r="G7" s="2"/>
@@ -647,14 +647,14 @@
         <v>47509</v>
       </c>
       <c r="D8" s="2">
-        <f t="shared" ref="D8:D9" si="2">C8-C6</f>
+        <f t="shared" ref="D8:D9" si="3">C8-C6</f>
         <v>1500</v>
       </c>
       <c r="E8" s="7">
         <v>4.49</v>
       </c>
       <c r="F8" s="5">
-        <f>D8*E8</f>
+        <f t="shared" si="2"/>
         <v>6735</v>
       </c>
       <c r="G8" s="5">
@@ -674,14 +674,14 @@
         <v>26404</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1000</v>
       </c>
       <c r="E9" s="2">
         <v>2.4300000000000002</v>
       </c>
       <c r="F9" s="5">
-        <f>D9*E9</f>
+        <f t="shared" si="2"/>
         <v>2430</v>
       </c>
       <c r="G9" s="2"/>
@@ -698,14 +698,14 @@
         <v>49409</v>
       </c>
       <c r="D10" s="2">
-        <f t="shared" ref="D10:D11" si="3">C10-C8</f>
+        <f t="shared" ref="D10:D11" si="4">C10-C8</f>
         <v>1900</v>
       </c>
       <c r="E10" s="7">
         <v>4.49</v>
       </c>
       <c r="F10" s="5">
-        <f>D10*E10</f>
+        <f t="shared" si="2"/>
         <v>8531</v>
       </c>
       <c r="G10" s="5">
@@ -725,46 +725,97 @@
         <v>27604</v>
       </c>
       <c r="D11" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1200</v>
       </c>
       <c r="E11" s="2">
         <v>2.4300000000000002</v>
       </c>
       <c r="F11" s="5">
-        <f>D11*E11</f>
+        <f t="shared" si="2"/>
         <v>2916</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="5" t="s">
-        <v>10</v>
+      <c r="A12" s="8">
+        <v>44018</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>50809</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" ref="D12:D13" si="5">C12-C10</f>
+        <v>1400</v>
+      </c>
+      <c r="E12" s="7">
+        <v>4.49</v>
+      </c>
+      <c r="F12" s="5">
+        <f t="shared" ref="F12:F13" si="6">D12*E12</f>
+        <v>6286</v>
       </c>
       <c r="G12" s="5">
-        <f>SUM(G4:G11)</f>
-        <v>48239</v>
+        <f>SUM(F12,F13)</f>
+        <v>8716</v>
       </c>
       <c r="H12" s="5">
-        <f>SUM(H4:H11)</f>
-        <v>48239</v>
+        <v>8716</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="5"/>
+      <c r="B13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2">
+        <v>28604</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" si="5"/>
+        <v>1000</v>
+      </c>
+      <c r="E13" s="2">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F13" s="5">
+        <f t="shared" si="6"/>
+        <v>2430</v>
+      </c>
       <c r="G13" s="2"/>
       <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="5">
+        <f>SUM(G4:G13)</f>
+        <v>56955</v>
+      </c>
+      <c r="H14" s="5">
+        <f>SUM(H4:H13)</f>
+        <v>56955</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/30ee.xlsx
+++ b/sputnik/personal/ee/30ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -457,10 +457,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -790,32 +790,83 @@
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="5" t="s">
+      <c r="A14" s="8">
+        <v>44088</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2">
+        <v>52309</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" ref="D14:D15" si="7">C14-C12</f>
+        <v>1500</v>
+      </c>
+      <c r="E14" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F14" s="5">
+        <f t="shared" ref="F14:F15" si="8">D14*E14</f>
+        <v>7065</v>
+      </c>
+      <c r="G14" s="5">
+        <f>SUM(F14,F15)</f>
+        <v>8340</v>
+      </c>
+      <c r="H14" s="5">
+        <v>8340</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2">
+        <v>29104</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" si="7"/>
+        <v>500</v>
+      </c>
+      <c r="E15" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F15" s="5">
+        <f t="shared" si="8"/>
+        <v>1275</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G16" s="5">
         <f>SUM(G4:G13)</f>
         <v>56955</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H16" s="5">
         <f>SUM(H4:H13)</f>
         <v>56955</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="5"/>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/30ee.xlsx
+++ b/sputnik/personal/ee/30ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -457,10 +457,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -841,32 +841,83 @@
       <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="5" t="s">
+      <c r="A16" s="8">
+        <v>44144</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2">
+        <v>54409</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" ref="D16:D17" si="9">C16-C14</f>
+        <v>2100</v>
+      </c>
+      <c r="E16" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F16" s="5">
+        <f t="shared" ref="F16:F17" si="10">D16*E16</f>
+        <v>9891</v>
+      </c>
+      <c r="G16" s="5">
+        <f>SUM(F16,F17)</f>
+        <v>12441</v>
+      </c>
+      <c r="H16" s="5">
+        <v>12441</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2">
+        <v>30104</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" si="9"/>
+        <v>1000</v>
+      </c>
+      <c r="E17" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F17" s="5">
+        <f t="shared" si="10"/>
+        <v>2550</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G18" s="5">
         <f>SUM(G4:G13)</f>
         <v>56955</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H18" s="5">
         <f>SUM(H4:H13)</f>
         <v>56955</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="5"/>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/30ee.xlsx
+++ b/sputnik/personal/ee/30ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="13">
   <si>
     <t>Т1</t>
   </si>
@@ -49,6 +49,12 @@
   </si>
   <si>
     <t>итого за период</t>
+  </si>
+  <si>
+    <t>Т</t>
+  </si>
+  <si>
+    <t>нач-ны пени 65 дн</t>
   </si>
 </sst>
 </file>
@@ -457,10 +463,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -892,32 +898,110 @@
       <c r="H17" s="5"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="5" t="s">
-        <v>10</v>
+      <c r="A18" s="8">
+        <v>44210</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2">
+        <v>56909</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" ref="D18:D19" si="11">C18-C16</f>
+        <v>2500</v>
+      </c>
+      <c r="E18" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F18" s="5">
+        <f t="shared" ref="F18:F19" si="12">D18*E18</f>
+        <v>11775</v>
       </c>
       <c r="G18" s="5">
-        <f>SUM(G4:G13)</f>
-        <v>56955</v>
+        <f>SUM(F18,F19)</f>
+        <v>18150</v>
       </c>
       <c r="H18" s="5">
-        <f>SUM(H4:H13)</f>
-        <v>56955</v>
+        <v>18150</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="5"/>
+      <c r="B19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2">
+        <v>32604</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" si="11"/>
+        <v>2500</v>
+      </c>
+      <c r="E19" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F19" s="5">
+        <f t="shared" si="12"/>
+        <v>6375</v>
+      </c>
       <c r="G19" s="2"/>
       <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>44210</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0</v>
+      </c>
+      <c r="F20" s="5">
+        <v>453.75</v>
+      </c>
+      <c r="G20" s="2">
+        <v>453.75</v>
+      </c>
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="5">
+        <f>SUM(G4:G20)</f>
+        <v>96339.75</v>
+      </c>
+      <c r="H21" s="5">
+        <f>SUM(H4:H20)</f>
+        <v>95886</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="5">
+        <f>SUM(H21,-G21)</f>
+        <v>-453.75</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/30ee.xlsx
+++ b/sputnik/personal/ee/30ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="13">
   <si>
     <t>Т1</t>
   </si>
@@ -64,7 +64,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,6 +89,13 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -129,7 +136,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -155,6 +162,15 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -463,10 +479,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -949,57 +965,108 @@
       <c r="H19" s="5"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
+      <c r="A20" s="10">
         <v>44210</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="11">
         <v>0</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="11">
         <v>0</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="12">
         <v>453.75</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="11">
         <v>453.75</v>
       </c>
-      <c r="H20" s="5"/>
+      <c r="H20" s="12"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="5" t="s">
+      <c r="A21" s="8">
+        <v>44271</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="2">
+        <v>61709</v>
+      </c>
+      <c r="D21" s="2">
+        <f>C21-C18</f>
+        <v>4800</v>
+      </c>
+      <c r="E21" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F21" s="5">
+        <f t="shared" ref="F21:F22" si="13">D21*E21</f>
+        <v>22608</v>
+      </c>
+      <c r="G21" s="5">
+        <f>SUM(F21,F22)</f>
+        <v>28473</v>
+      </c>
+      <c r="H21" s="5">
+        <v>28473</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="2">
+        <v>34904</v>
+      </c>
+      <c r="D22" s="2">
+        <f>C22-C19</f>
+        <v>2300</v>
+      </c>
+      <c r="E22" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F22" s="5">
+        <f t="shared" si="13"/>
+        <v>5865</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G23" s="5">
         <f>SUM(G4:G20)</f>
         <v>96339.75</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H23" s="5">
         <f>SUM(H4:H20)</f>
         <v>95886</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="5">
-        <f>SUM(H21,-G21)</f>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="5">
+        <f>SUM(H23,-G23)</f>
         <v>-453.75</v>
       </c>
     </row>

--- a/sputnik/personal/ee/30ee.xlsx
+++ b/sputnik/personal/ee/30ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -46,9 +46,6 @@
   </si>
   <si>
     <t>оплачено</t>
-  </si>
-  <si>
-    <t>итого за период</t>
   </si>
   <si>
     <t>Т</t>
@@ -481,8 +478,8 @@
   </sheetPr>
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -969,13 +966,13 @@
         <v>44210</v>
       </c>
       <c r="B20" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="11">
+        <v>0</v>
+      </c>
+      <c r="D20" s="11" t="s">
         <v>11</v>
-      </c>
-      <c r="C20" s="11">
-        <v>0</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>12</v>
       </c>
       <c r="E20" s="11">
         <v>0</v>
@@ -1040,35 +1037,55 @@
       <c r="H22" s="5"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="5" t="s">
-        <v>10</v>
+      <c r="A23" s="8">
+        <v>44356</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="2">
+        <v>62709</v>
+      </c>
+      <c r="D23" s="2">
+        <f>C23-C21</f>
+        <v>1000</v>
+      </c>
+      <c r="E23" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F23" s="5">
+        <f t="shared" ref="F23:F24" si="14">D23*E23</f>
+        <v>4710</v>
       </c>
       <c r="G23" s="5">
-        <f>SUM(G4:G20)</f>
-        <v>96339.75</v>
+        <f>SUM(F23,F24)</f>
+        <v>5730</v>
       </c>
       <c r="H23" s="5">
-        <f>SUM(H4:H20)</f>
-        <v>95886</v>
+        <v>5730</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="5"/>
+      <c r="B24" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="2">
+        <v>35304</v>
+      </c>
+      <c r="D24" s="2">
+        <f>C24-C22</f>
+        <v>400</v>
+      </c>
+      <c r="E24" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F24" s="5">
+        <f t="shared" si="14"/>
+        <v>1019.9999999999999</v>
+      </c>
       <c r="G24" s="2"/>
-      <c r="H24" s="5">
-        <f>SUM(H23,-G23)</f>
-        <v>-453.75</v>
-      </c>
+      <c r="H24" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/30ee.xlsx
+++ b/sputnik/personal/ee/30ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -476,7 +476,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="H25" sqref="H25"/>
@@ -1086,6 +1086,57 @@
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="5"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
+        <v>44376</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="2">
+        <v>65109</v>
+      </c>
+      <c r="D25" s="2">
+        <f>C25-C23</f>
+        <v>2400</v>
+      </c>
+      <c r="E25" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F25" s="5">
+        <f t="shared" ref="F25:F26" si="15">D25*E25</f>
+        <v>11304</v>
+      </c>
+      <c r="G25" s="5">
+        <f>SUM(F25,F26)</f>
+        <v>15639</v>
+      </c>
+      <c r="H25" s="5">
+        <v>15639</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="2">
+        <v>37004</v>
+      </c>
+      <c r="D26" s="2">
+        <f>C26-C24</f>
+        <v>1700</v>
+      </c>
+      <c r="E26" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F26" s="5">
+        <f t="shared" si="15"/>
+        <v>4335</v>
+      </c>
+      <c r="G26" s="2"/>
+      <c r="H26" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/30ee.xlsx
+++ b/sputnik/personal/ee/30ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -476,10 +476,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1137,6 +1137,57 @@
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="5"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="8">
+        <v>44445</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="2">
+        <v>66209</v>
+      </c>
+      <c r="D27" s="2">
+        <f>C27-C25</f>
+        <v>1100</v>
+      </c>
+      <c r="E27" s="7">
+        <v>4.96</v>
+      </c>
+      <c r="F27" s="5">
+        <f t="shared" ref="F27:F28" si="16">D27*E27</f>
+        <v>5456</v>
+      </c>
+      <c r="G27" s="5">
+        <f>SUM(F27,F28)</f>
+        <v>7064</v>
+      </c>
+      <c r="H27" s="5">
+        <v>7064</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="B28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="2">
+        <v>37604</v>
+      </c>
+      <c r="D28" s="2">
+        <f>C28-C26</f>
+        <v>600</v>
+      </c>
+      <c r="E28" s="2">
+        <v>2.68</v>
+      </c>
+      <c r="F28" s="5">
+        <f t="shared" si="16"/>
+        <v>1608</v>
+      </c>
+      <c r="G28" s="2"/>
+      <c r="H28" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/30ee.xlsx
+++ b/sputnik/personal/ee/30ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -476,10 +476,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -523,29 +523,29 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
-        <v>43796</v>
+        <v>44144</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>41209</v>
+        <v>54409</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="7"/>
       <c r="F2" s="5"/>
-      <c r="G2" s="2"/>
+      <c r="G2" s="5"/>
       <c r="H2" s="5"/>
     </row>
-    <row r="3" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="2">
-        <v>22904</v>
+        <v>30104</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -555,31 +555,31 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
-        <v>43830</v>
+        <v>44210</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="2">
-        <v>43509</v>
+        <v>56909</v>
       </c>
       <c r="D4" s="2">
-        <f>C4-C2</f>
-        <v>2300</v>
+        <f t="shared" ref="D4:D5" si="0">C4-C2</f>
+        <v>2500</v>
       </c>
       <c r="E4" s="7">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F4" s="5">
-        <f t="shared" ref="F4:F5" si="0">D4*E4</f>
-        <v>10327</v>
+        <f t="shared" ref="F4:F5" si="1">D4*E4</f>
+        <v>11775</v>
       </c>
       <c r="G4" s="5">
         <f>SUM(F4,F5)</f>
-        <v>13243</v>
+        <v>18150</v>
       </c>
       <c r="H4" s="5">
-        <v>13243</v>
+        <v>18150</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -588,606 +588,249 @@
         <v>1</v>
       </c>
       <c r="C5" s="2">
-        <v>24104</v>
+        <v>32604</v>
       </c>
       <c r="D5" s="2">
-        <f t="shared" ref="D5:D7" si="1">C5-C3</f>
-        <v>1200</v>
+        <f t="shared" si="0"/>
+        <v>2500</v>
       </c>
       <c r="E5" s="2">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F5" s="5">
-        <f t="shared" si="0"/>
-        <v>2916</v>
+        <f t="shared" si="1"/>
+        <v>6375</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
-        <v>43878</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="A6" s="10">
+        <v>44210</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="11">
         <v>0</v>
       </c>
-      <c r="C6" s="2">
-        <v>46009</v>
-      </c>
-      <c r="D6" s="2">
-        <f t="shared" si="1"/>
-        <v>2500</v>
-      </c>
-      <c r="E6" s="7">
-        <v>4.49</v>
-      </c>
-      <c r="F6" s="5">
-        <f t="shared" ref="F6:F11" si="2">D6*E6</f>
-        <v>11225</v>
-      </c>
-      <c r="G6" s="5">
-        <f>SUM(F6,F7)</f>
-        <v>14384</v>
-      </c>
-      <c r="H6" s="5">
-        <v>14384</v>
-      </c>
+      <c r="D6" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="11">
+        <v>0</v>
+      </c>
+      <c r="F6" s="12">
+        <v>453.75</v>
+      </c>
+      <c r="G6" s="11">
+        <v>453.75</v>
+      </c>
+      <c r="H6" s="12"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
+      <c r="A7" s="8">
+        <v>44271</v>
+      </c>
       <c r="B7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>61709</v>
+      </c>
+      <c r="D7" s="2">
+        <f>C7-C4</f>
+        <v>4800</v>
+      </c>
+      <c r="E7" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F7" s="5">
+        <f t="shared" ref="F7:F8" si="2">D7*E7</f>
+        <v>22608</v>
+      </c>
+      <c r="G7" s="5">
+        <f>SUM(F7,F8)</f>
+        <v>28473</v>
+      </c>
+      <c r="H7" s="5">
+        <v>28473</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="2">
-        <v>25404</v>
-      </c>
-      <c r="D7" s="2">
-        <f t="shared" si="1"/>
-        <v>1300</v>
-      </c>
-      <c r="E7" s="2">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F7" s="5">
-        <f t="shared" si="2"/>
-        <v>3159</v>
-      </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="5"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
-        <v>43920</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>0</v>
-      </c>
       <c r="C8" s="2">
-        <v>47509</v>
+        <v>34904</v>
       </c>
       <c r="D8" s="2">
-        <f t="shared" ref="D8:D9" si="3">C8-C6</f>
-        <v>1500</v>
-      </c>
-      <c r="E8" s="7">
-        <v>4.49</v>
+        <f>C8-C5</f>
+        <v>2300</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2.5499999999999998</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" si="2"/>
-        <v>6735</v>
-      </c>
-      <c r="G8" s="5">
-        <f>SUM(F8,F9)</f>
-        <v>9165</v>
-      </c>
-      <c r="H8" s="5">
-        <v>9165</v>
-      </c>
+        <v>5865</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
+      <c r="A9" s="8">
+        <v>44356</v>
+      </c>
       <c r="B9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2">
+        <v>62709</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" ref="D9:D14" si="3">C9-C7</f>
+        <v>1000</v>
+      </c>
+      <c r="E9" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F9" s="5">
+        <f t="shared" ref="F9:F10" si="4">D9*E9</f>
+        <v>4710</v>
+      </c>
+      <c r="G9" s="5">
+        <f>SUM(F9,F10)</f>
+        <v>5730</v>
+      </c>
+      <c r="H9" s="5">
+        <v>5730</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="2">
-        <v>26404</v>
-      </c>
-      <c r="D9" s="2">
+      <c r="C10" s="2">
+        <v>35304</v>
+      </c>
+      <c r="D10" s="2">
         <f t="shared" si="3"/>
-        <v>1000</v>
-      </c>
-      <c r="E9" s="2">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F9" s="5">
-        <f t="shared" si="2"/>
-        <v>2430</v>
-      </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="5"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
-        <v>43958</v>
-      </c>
-      <c r="B10" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F10" s="5">
+        <f t="shared" si="4"/>
+        <v>1019.9999999999999</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>44376</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="2">
-        <v>49409</v>
-      </c>
-      <c r="D10" s="2">
-        <f t="shared" ref="D10:D11" si="4">C10-C8</f>
-        <v>1900</v>
-      </c>
-      <c r="E10" s="7">
-        <v>4.49</v>
-      </c>
-      <c r="F10" s="5">
-        <f t="shared" si="2"/>
-        <v>8531</v>
-      </c>
-      <c r="G10" s="5">
-        <f>SUM(F10,F11)</f>
-        <v>11447</v>
-      </c>
-      <c r="H10" s="5">
-        <v>11447</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="2">
+        <v>65109</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="3"/>
+        <v>2400</v>
+      </c>
+      <c r="E11" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F11" s="5">
+        <f t="shared" ref="F11:F12" si="5">D11*E11</f>
+        <v>11304</v>
+      </c>
+      <c r="G11" s="5">
+        <f>SUM(F11,F12)</f>
+        <v>15639</v>
+      </c>
+      <c r="H11" s="5">
+        <v>15639</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="2">
-        <v>27604</v>
-      </c>
-      <c r="D11" s="2">
-        <f t="shared" si="4"/>
-        <v>1200</v>
-      </c>
-      <c r="E11" s="2">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F11" s="5">
-        <f t="shared" si="2"/>
-        <v>2916</v>
-      </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="5"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
-        <v>44018</v>
-      </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="2">
+        <v>37004</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" si="3"/>
+        <v>1700</v>
+      </c>
+      <c r="E12" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F12" s="5">
+        <f t="shared" si="5"/>
+        <v>4335</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>44445</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="2">
-        <v>50809</v>
-      </c>
-      <c r="D12" s="2">
-        <f t="shared" ref="D12:D13" si="5">C12-C10</f>
-        <v>1400</v>
-      </c>
-      <c r="E12" s="7">
-        <v>4.49</v>
-      </c>
-      <c r="F12" s="5">
-        <f t="shared" ref="F12:F13" si="6">D12*E12</f>
-        <v>6286</v>
-      </c>
-      <c r="G12" s="5">
-        <f>SUM(F12,F13)</f>
-        <v>8716</v>
-      </c>
-      <c r="H12" s="5">
-        <v>8716</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="2">
+        <v>66209</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" si="3"/>
+        <v>1100</v>
+      </c>
+      <c r="E13" s="7">
+        <v>4.96</v>
+      </c>
+      <c r="F13" s="5">
+        <f t="shared" ref="F13:F14" si="6">D13*E13</f>
+        <v>5456</v>
+      </c>
+      <c r="G13" s="5">
+        <f>SUM(F13,F14)</f>
+        <v>7064</v>
+      </c>
+      <c r="H13" s="5">
+        <v>7064</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="2">
-        <v>28604</v>
-      </c>
-      <c r="D13" s="2">
-        <f t="shared" si="5"/>
-        <v>1000</v>
-      </c>
-      <c r="E13" s="2">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F13" s="5">
+      <c r="C14" s="2">
+        <v>37604</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" si="3"/>
+        <v>600</v>
+      </c>
+      <c r="E14" s="2">
+        <v>2.68</v>
+      </c>
+      <c r="F14" s="5">
         <f t="shared" si="6"/>
-        <v>2430</v>
-      </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="5"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
-        <v>44088</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="2">
-        <v>52309</v>
-      </c>
-      <c r="D14" s="2">
-        <f t="shared" ref="D14:D15" si="7">C14-C12</f>
-        <v>1500</v>
-      </c>
-      <c r="E14" s="7">
-        <v>4.71</v>
-      </c>
-      <c r="F14" s="5">
-        <f t="shared" ref="F14:F15" si="8">D14*E14</f>
-        <v>7065</v>
-      </c>
-      <c r="G14" s="5">
-        <f>SUM(F14,F15)</f>
-        <v>8340</v>
-      </c>
-      <c r="H14" s="5">
-        <v>8340</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="2">
-        <v>29104</v>
-      </c>
-      <c r="D15" s="2">
-        <f t="shared" si="7"/>
-        <v>500</v>
-      </c>
-      <c r="E15" s="2">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F15" s="5">
-        <f t="shared" si="8"/>
-        <v>1275</v>
-      </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="5"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
-        <v>44144</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="2">
-        <v>54409</v>
-      </c>
-      <c r="D16" s="2">
-        <f t="shared" ref="D16:D17" si="9">C16-C14</f>
-        <v>2100</v>
-      </c>
-      <c r="E16" s="7">
-        <v>4.71</v>
-      </c>
-      <c r="F16" s="5">
-        <f t="shared" ref="F16:F17" si="10">D16*E16</f>
-        <v>9891</v>
-      </c>
-      <c r="G16" s="5">
-        <f>SUM(F16,F17)</f>
-        <v>12441</v>
-      </c>
-      <c r="H16" s="5">
-        <v>12441</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="2">
-        <v>30104</v>
-      </c>
-      <c r="D17" s="2">
-        <f t="shared" si="9"/>
-        <v>1000</v>
-      </c>
-      <c r="E17" s="2">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F17" s="5">
-        <f t="shared" si="10"/>
-        <v>2550</v>
-      </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="5"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
-        <v>44210</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="2">
-        <v>56909</v>
-      </c>
-      <c r="D18" s="2">
-        <f t="shared" ref="D18:D19" si="11">C18-C16</f>
-        <v>2500</v>
-      </c>
-      <c r="E18" s="7">
-        <v>4.71</v>
-      </c>
-      <c r="F18" s="5">
-        <f t="shared" ref="F18:F19" si="12">D18*E18</f>
-        <v>11775</v>
-      </c>
-      <c r="G18" s="5">
-        <f>SUM(F18,F19)</f>
-        <v>18150</v>
-      </c>
-      <c r="H18" s="5">
-        <v>18150</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="2">
-        <v>32604</v>
-      </c>
-      <c r="D19" s="2">
-        <f t="shared" si="11"/>
-        <v>2500</v>
-      </c>
-      <c r="E19" s="2">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F19" s="5">
-        <f t="shared" si="12"/>
-        <v>6375</v>
-      </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="5"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="10">
-        <v>44210</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="11">
-        <v>0</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="11">
-        <v>0</v>
-      </c>
-      <c r="F20" s="12">
-        <v>453.75</v>
-      </c>
-      <c r="G20" s="11">
-        <v>453.75</v>
-      </c>
-      <c r="H20" s="12"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="8">
-        <v>44271</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" s="2">
-        <v>61709</v>
-      </c>
-      <c r="D21" s="2">
-        <f>C21-C18</f>
-        <v>4800</v>
-      </c>
-      <c r="E21" s="7">
-        <v>4.71</v>
-      </c>
-      <c r="F21" s="5">
-        <f t="shared" ref="F21:F22" si="13">D21*E21</f>
-        <v>22608</v>
-      </c>
-      <c r="G21" s="5">
-        <f>SUM(F21,F22)</f>
-        <v>28473</v>
-      </c>
-      <c r="H21" s="5">
-        <v>28473</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="2">
-        <v>34904</v>
-      </c>
-      <c r="D22" s="2">
-        <f>C22-C19</f>
-        <v>2300</v>
-      </c>
-      <c r="E22" s="2">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F22" s="5">
-        <f t="shared" si="13"/>
-        <v>5865</v>
-      </c>
-      <c r="G22" s="2"/>
-      <c r="H22" s="5"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="8">
-        <v>44356</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" s="2">
-        <v>62709</v>
-      </c>
-      <c r="D23" s="2">
-        <f>C23-C21</f>
-        <v>1000</v>
-      </c>
-      <c r="E23" s="7">
-        <v>4.71</v>
-      </c>
-      <c r="F23" s="5">
-        <f t="shared" ref="F23:F24" si="14">D23*E23</f>
-        <v>4710</v>
-      </c>
-      <c r="G23" s="5">
-        <f>SUM(F23,F24)</f>
-        <v>5730</v>
-      </c>
-      <c r="H23" s="5">
-        <v>5730</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" s="2">
-        <v>35304</v>
-      </c>
-      <c r="D24" s="2">
-        <f>C24-C22</f>
-        <v>400</v>
-      </c>
-      <c r="E24" s="2">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F24" s="5">
-        <f t="shared" si="14"/>
-        <v>1019.9999999999999</v>
-      </c>
-      <c r="G24" s="2"/>
-      <c r="H24" s="5"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="8">
-        <v>44376</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C25" s="2">
-        <v>65109</v>
-      </c>
-      <c r="D25" s="2">
-        <f>C25-C23</f>
-        <v>2400</v>
-      </c>
-      <c r="E25" s="7">
-        <v>4.71</v>
-      </c>
-      <c r="F25" s="5">
-        <f t="shared" ref="F25:F26" si="15">D25*E25</f>
-        <v>11304</v>
-      </c>
-      <c r="G25" s="5">
-        <f>SUM(F25,F26)</f>
-        <v>15639</v>
-      </c>
-      <c r="H25" s="5">
-        <v>15639</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26" s="2">
-        <v>37004</v>
-      </c>
-      <c r="D26" s="2">
-        <f>C26-C24</f>
-        <v>1700</v>
-      </c>
-      <c r="E26" s="2">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F26" s="5">
-        <f t="shared" si="15"/>
-        <v>4335</v>
-      </c>
-      <c r="G26" s="2"/>
-      <c r="H26" s="5"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="8">
-        <v>44445</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C27" s="2">
-        <v>66209</v>
-      </c>
-      <c r="D27" s="2">
-        <f>C27-C25</f>
-        <v>1100</v>
-      </c>
-      <c r="E27" s="7">
-        <v>4.96</v>
-      </c>
-      <c r="F27" s="5">
-        <f t="shared" ref="F27:F28" si="16">D27*E27</f>
-        <v>5456</v>
-      </c>
-      <c r="G27" s="5">
-        <f>SUM(F27,F28)</f>
-        <v>7064</v>
-      </c>
-      <c r="H27" s="5">
-        <v>7064</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C28" s="2">
-        <v>37604</v>
-      </c>
-      <c r="D28" s="2">
-        <f>C28-C26</f>
-        <v>600</v>
-      </c>
-      <c r="E28" s="2">
-        <v>2.68</v>
-      </c>
-      <c r="F28" s="5">
-        <f t="shared" si="16"/>
         <v>1608</v>
       </c>
-      <c r="G28" s="2"/>
-      <c r="H28" s="5"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/30ee.xlsx
+++ b/sputnik/personal/ee/30ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -476,10 +476,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H15"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -831,6 +831,57 @@
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <v>44503</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2">
+        <v>69409</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" ref="D15:D16" si="7">C15-C13</f>
+        <v>3200</v>
+      </c>
+      <c r="E15" s="7">
+        <v>4.96</v>
+      </c>
+      <c r="F15" s="5">
+        <f t="shared" ref="F15:F16" si="8">D15*E15</f>
+        <v>15872</v>
+      </c>
+      <c r="G15" s="5">
+        <f>SUM(F15,F16)</f>
+        <v>19892</v>
+      </c>
+      <c r="H15" s="5">
+        <v>19895</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2">
+        <v>39104</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" si="7"/>
+        <v>1500</v>
+      </c>
+      <c r="E16" s="2">
+        <v>2.68</v>
+      </c>
+      <c r="F16" s="5">
+        <f t="shared" si="8"/>
+        <v>4020.0000000000005</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
